--- a/simulation_results/dunn_matrix_equalw_multivar_t_t189.xlsx
+++ b/simulation_results/dunn_matrix_equalw_multivar_t_t189.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.261</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3384</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3316</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1015</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0993</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0599</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0586</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0112</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.261</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0112</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0001</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3384</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1015</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0599</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3316</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0993</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0586</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0001</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3894</v>
+        <v>0.0196</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0201</v>
+        <v>0.0004</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0296</v>
+        <v>0.004</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5262</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3293</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0111</v>
+        <v>0.9745</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3894</v>
+        <v>0.0196</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0111</v>
+        <v>0.9745</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0201</v>
+        <v>0.0004</v>
       </c>
       <c r="D8">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5262</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3293</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0296</v>
+        <v>0.004</v>
       </c>
       <c r="D10">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0261</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0261</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1342,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1673,16 +1673,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0209</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0209</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.6388</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1037</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.6388</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.1037</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/simulation_results/dunn_matrix_equalw_multivar_t_t189.xlsx
+++ b/simulation_results/dunn_matrix_equalw_multivar_t_t189.xlsx
@@ -10,14 +10,15 @@
     <sheet name="annualised_return" sheetId="1" r:id="rId1"/>
     <sheet name="mean_period_return" sheetId="2" r:id="rId2"/>
     <sheet name="sharpe_annualized" sheetId="3" r:id="rId3"/>
-    <sheet name="VaR" sheetId="4" r:id="rId4"/>
+    <sheet name="sharpe_period" sheetId="4" r:id="rId4"/>
+    <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>minvar_ports_equalw</t>
   </si>
@@ -462,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.261</v>
+        <v>0.3044</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -602,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -622,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.261</v>
+        <v>0.3044</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -634,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -716,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.8558</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -748,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.8558</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -777,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.008399999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -857,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0196</v>
+        <v>0.0222</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -895,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004</v>
+        <v>0.0035</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004</v>
+        <v>0.0213</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -997,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9745</v>
+        <v>0.6385999999999999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1017,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0196</v>
+        <v>0.0222</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1029,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9745</v>
+        <v>0.6385999999999999</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1044,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1055,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0004</v>
+        <v>0.0035</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.004</v>
+        <v>0.0213</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1172,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1243,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0882</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0893</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1278,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0261</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1307,10 +1308,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0882</v>
       </c>
       <c r="C4">
-        <v>0.0261</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1342,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0893</v>
       </c>
       <c r="C5">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1392,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0002</v>
+        <v>0.0014</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1424,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0002</v>
+        <v>0.0014</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1673,16 +1674,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="F3">
-        <v>0.0209</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1705,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,7 +1776,402 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0209</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.0005</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.0005</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.023</v>
+      </c>
+      <c r="G3">
+        <v>0.0004</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.023</v>
       </c>
       <c r="D6">
         <v>0</v>
